--- a/OSAMS/fileupload/group3_sample.xlsx
+++ b/OSAMS/fileupload/group3_sample.xlsx
@@ -912,7 +912,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
